--- a/medicine/Pharmacie/1843_en_santé_et_médecine/1843_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1843_en_santé_et_médecine/1843_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1843_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1843_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1843 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1843_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1843_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13 février : le médecin américain Oliver Wendell Holmes est le premier à soutenir la nature contagieuse de la fièvre puerpérale dans son article intitulé The contagiousness of puerperal fever lu devant la Boston Society for Medical Improvement[1]. Il affirme qu'elle se transmet souvent de parturiente en parturiente par les mains des praticiens et préconise en vain des règles d'hygiène[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13 février : le médecin américain Oliver Wendell Holmes est le premier à soutenir la nature contagieuse de la fièvre puerpérale dans son article intitulé The contagiousness of puerperal fever lu devant la Boston Society for Medical Improvement. Il affirme qu'elle se transmet souvent de parturiente en parturiente par les mains des praticiens et préconise en vain des règles d'hygiène.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1843_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1843_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Poiseuille obtient le prix Montyon pour la quatrième fois.</t>
         </is>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1843_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1843_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>22 janvier : Edmond-Joseph Bourque (mort en 1921), médecin neuropsychiatre et professeur canadien.
 24 mars : Édouard Heckel (mort en 1916), médecin et botaniste français.
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1843_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1843_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>27 janvier : Henri Savigny (né en 1793), chirurgien et médecin de la Marine, rescapé du naufrage de La Méduse[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>27 janvier : Henri Savigny (né en 1793), chirurgien et médecin de la Marine, rescapé du naufrage de La Méduse.
 2 juillet : Samuel Hahnemann (né en 1755), médecin allemand.</t>
         </is>
       </c>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1843_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1843_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Oliver Wendell Holmes, Puerperal Fever, as a Private Pestilence, Ticknor and Fields, 1855 (présentation en ligne)
